--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A02_控除マスタCSV出力_補足資料.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A02_控除マスタCSV出力_補足資料.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_19001～19100\E_本稼動_19033【収益認識】控除マスタCSV出力権限変更\20_成果物\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="15600" windowHeight="11010"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="15600" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力項目" sheetId="2" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="CSV出力項目_①_old" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="CSVダウンロード_①_old" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="256">
   <si>
     <t>■形式：CSV</t>
     <rPh sb="1" eb="3">
@@ -1321,6 +1326,68 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>完全一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+指定された企業指定の控除マスタに加えて、企業傘下の控除用チェーン及び顧客で指定された控除マスタも出力対象とします。特権拠点の場合は上記条件を満たす全データを出力可。通常拠点の場合は自拠点分のみ出力可とします。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>完全一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+指定された控除用チェーン指定の控除マスタに加えて、控除用チェーン傘下の顧客で指定された控除マスタも出力対象とします。特権拠点の場合は上記条件を満たす全データを出力可。通常拠点の場合は自拠点分のみ出力可とします。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
 </sst>
 </file>
 
@@ -1329,7 +1396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,6 +1627,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -2445,7 +2527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2683,6 +2765,15 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2713,6 +2804,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2790,21 +2890,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="25" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2866,8 +2951,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -2875,12 +2960,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2922,7 +3010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2957,7 +3045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3171,35 +3259,37 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="55"/>
     <col min="2" max="2" width="22" style="55" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="B1" s="74" t="s">
         <v>220</v>
       </c>
       <c r="C1" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="86"/>
+      <c r="E1" s="89"/>
       <c r="F1" s="74" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="56"/>
       <c r="B2" s="73" t="s">
         <v>224</v>
@@ -3214,8 +3304,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="84" t="s">
         <v>221</v>
       </c>
       <c r="B3" s="57" t="s">
@@ -3224,7 +3314,7 @@
       <c r="C3" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="94" t="s">
         <v>232</v>
       </c>
       <c r="E3" s="77" t="s">
@@ -3236,47 +3326,47 @@
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:8" ht="144">
+      <c r="A4" s="90"/>
       <c r="B4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="120"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>233</v>
+      <c r="F4" s="83" t="s">
+        <v>254</v>
       </c>
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:8" ht="158.4">
+      <c r="A5" s="90"/>
       <c r="B5" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="120"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>233</v>
+      <c r="F5" s="83" t="s">
+        <v>255</v>
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="90"/>
       <c r="B6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="121"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="76" t="s">
         <v>239</v>
       </c>
@@ -3284,8 +3374,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="90"/>
       <c r="B7" s="57" t="s">
         <v>10</v>
       </c>
@@ -3302,8 +3392,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="90"/>
       <c r="B8" s="57" t="s">
         <v>247</v>
       </c>
@@ -3320,8 +3410,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="90"/>
       <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
@@ -3340,8 +3430,8 @@
       <c r="G9" s="71"/>
       <c r="H9" s="71"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="90"/>
       <c r="B10" s="57" t="s">
         <v>226</v>
       </c>
@@ -3360,8 +3450,8 @@
       <c r="G10" s="71"/>
       <c r="H10" s="71"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="90"/>
       <c r="B11" s="57" t="s">
         <v>13</v>
       </c>
@@ -3378,8 +3468,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="90"/>
       <c r="B12" s="57" t="s">
         <v>14</v>
       </c>
@@ -3396,8 +3486,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="85"/>
       <c r="B13" s="57" t="s">
         <v>217</v>
       </c>
@@ -3414,8 +3504,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A14" s="86" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -3428,8 +3518,8 @@
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="97"/>
       <c r="B15" s="59" t="s">
         <v>16</v>
       </c>
@@ -3440,8 +3530,8 @@
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="97"/>
       <c r="B16" s="59" t="s">
         <v>216</v>
       </c>
@@ -3452,8 +3542,8 @@
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="97"/>
       <c r="B17" s="59" t="s">
         <v>135</v>
       </c>
@@ -3464,8 +3554,8 @@
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="97"/>
       <c r="B18" s="59" t="s">
         <v>27</v>
       </c>
@@ -3476,8 +3566,8 @@
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="97"/>
       <c r="B19" s="59" t="s">
         <v>17</v>
       </c>
@@ -3488,8 +3578,8 @@
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="97"/>
       <c r="B20" s="59" t="s">
         <v>18</v>
       </c>
@@ -3500,8 +3590,8 @@
       <c r="E20" s="79"/>
       <c r="F20" s="79"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="97"/>
       <c r="B21" s="59" t="s">
         <v>28</v>
       </c>
@@ -3512,8 +3602,8 @@
       <c r="E21" s="79"/>
       <c r="F21" s="79"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="97"/>
       <c r="B22" s="59" t="s">
         <v>29</v>
       </c>
@@ -3524,8 +3614,8 @@
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="97"/>
       <c r="B23" s="59" t="s">
         <v>31</v>
       </c>
@@ -3536,8 +3626,8 @@
       <c r="E23" s="79"/>
       <c r="F23" s="79"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="97"/>
       <c r="B24" s="59" t="s">
         <v>32</v>
       </c>
@@ -3548,8 +3638,8 @@
       <c r="E24" s="79"/>
       <c r="F24" s="79"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="97"/>
       <c r="B25" s="59" t="s">
         <v>34</v>
       </c>
@@ -3560,8 +3650,8 @@
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="97"/>
       <c r="B26" s="59" t="s">
         <v>35</v>
       </c>
@@ -3572,8 +3662,8 @@
       <c r="E26" s="79"/>
       <c r="F26" s="79"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="97"/>
       <c r="B27" s="59" t="s">
         <v>140</v>
       </c>
@@ -3584,8 +3674,8 @@
       <c r="E27" s="79"/>
       <c r="F27" s="79"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
+    <row r="28" spans="1:6">
+      <c r="A28" s="97"/>
       <c r="B28" s="59" t="s">
         <v>219</v>
       </c>
@@ -3596,8 +3686,8 @@
       <c r="E28" s="79"/>
       <c r="F28" s="79"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="97"/>
       <c r="B29" s="59" t="s">
         <v>37</v>
       </c>
@@ -3608,8 +3698,8 @@
       <c r="E29" s="79"/>
       <c r="F29" s="79"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="97"/>
       <c r="B30" s="59" t="s">
         <v>38</v>
       </c>
@@ -3620,8 +3710,8 @@
       <c r="E30" s="79"/>
       <c r="F30" s="79"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="97"/>
       <c r="B31" s="59" t="s">
         <v>242</v>
       </c>
@@ -3632,8 +3722,8 @@
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="97"/>
       <c r="B32" s="59" t="s">
         <v>41</v>
       </c>
@@ -3644,8 +3734,8 @@
       <c r="E32" s="79"/>
       <c r="F32" s="79"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
+    <row r="33" spans="1:6">
+      <c r="A33" s="97"/>
       <c r="B33" s="60" t="s">
         <v>218</v>
       </c>
@@ -3656,8 +3746,8 @@
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="97"/>
       <c r="B34" s="60" t="s">
         <v>227</v>
       </c>
@@ -3668,8 +3758,8 @@
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="87"/>
       <c r="B35" s="60" t="s">
         <v>228</v>
       </c>
@@ -3680,8 +3770,8 @@
       <c r="E35" s="79"/>
       <c r="F35" s="79"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="84" t="s">
         <v>221</v>
       </c>
       <c r="B36" s="57" t="s">
@@ -3690,18 +3780,18 @@
       <c r="C36" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="E36" s="118" t="s">
+      <c r="E36" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="118" t="s">
+      <c r="F36" s="82" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
+    <row r="37" spans="1:6">
+      <c r="A37" s="85"/>
       <c r="B37" s="57" t="s">
         <v>251</v>
       </c>
@@ -3712,8 +3802,8 @@
       <c r="E37" s="79"/>
       <c r="F37" s="79"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83" t="s">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A38" s="86" t="s">
         <v>222</v>
       </c>
       <c r="B38" s="60" t="s">
@@ -3726,8 +3816,8 @@
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A39" s="87"/>
       <c r="B39" s="60" t="s">
         <v>253</v>
       </c>
@@ -3738,30 +3828,30 @@
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
       <c r="D40" s="80"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="D41" s="80" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="15" thickBot="1"/>
+    <row r="43" spans="1:6">
       <c r="B43" s="62" t="s">
         <v>181</v>
       </c>
       <c r="C43" s="63"/>
       <c r="D43" s="64"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="B44" s="65"/>
       <c r="C44" s="66" t="s">
         <v>214</v>
       </c>
       <c r="D44" s="67"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="B45" s="68"/>
       <c r="C45" s="69" t="s">
         <v>215</v>
@@ -3793,25 +3883,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3831,31 +3921,31 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17">
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17">
       <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17">
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="11.4" thickBot="1">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="95" t="s">
+    <row r="8" spans="2:17">
+      <c r="B8" s="101" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -3895,8 +3985,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96"/>
+    <row r="9" spans="2:17" ht="11.4" thickBot="1">
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>44</v>
       </c>
@@ -3926,8 +4016,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="96"/>
+    <row r="10" spans="2:17">
+      <c r="B10" s="102"/>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
@@ -3955,8 +4045,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="97"/>
+    <row r="11" spans="2:17" ht="11.4" thickBot="1">
+      <c r="B11" s="103"/>
       <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
@@ -3984,8 +4074,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="98" t="s">
+    <row r="12" spans="2:17">
+      <c r="B12" s="104" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -4025,8 +4115,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
+    <row r="13" spans="2:17" ht="11.4" thickBot="1">
+      <c r="B13" s="105"/>
       <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
@@ -4058,8 +4148,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="99"/>
+    <row r="14" spans="2:17">
+      <c r="B14" s="105"/>
       <c r="C14" s="6" t="s">
         <v>1</v>
       </c>
@@ -4089,8 +4179,8 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="99"/>
+    <row r="15" spans="2:17">
+      <c r="B15" s="105"/>
       <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
@@ -4118,8 +4208,8 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="99"/>
+    <row r="16" spans="2:17">
+      <c r="B16" s="105"/>
       <c r="C16" s="11" t="s">
         <v>44</v>
       </c>
@@ -4147,8 +4237,8 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
     </row>
-    <row r="17" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="100"/>
+    <row r="17" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B17" s="106"/>
       <c r="C17" s="21" t="s">
         <v>44</v>
       </c>
@@ -4176,8 +4266,8 @@
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B18" s="101" t="s">
+    <row r="18" spans="2:16">
+      <c r="B18" s="107" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -4217,8 +4307,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="102"/>
+    <row r="19" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B19" s="108"/>
       <c r="C19" s="11" t="s">
         <v>44</v>
       </c>
@@ -4252,8 +4342,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="102"/>
+    <row r="20" spans="2:16">
+      <c r="B20" s="108"/>
       <c r="C20" s="7" t="s">
         <v>1</v>
       </c>
@@ -4289,8 +4379,8 @@
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B21" s="102"/>
+    <row r="21" spans="2:16">
+      <c r="B21" s="108"/>
       <c r="C21" s="11" t="s">
         <v>44</v>
       </c>
@@ -4324,8 +4414,8 @@
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="102"/>
+    <row r="22" spans="2:16">
+      <c r="B22" s="108"/>
       <c r="C22" s="11" t="s">
         <v>44</v>
       </c>
@@ -4359,8 +4449,8 @@
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
     </row>
-    <row r="23" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
+    <row r="23" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B23" s="109"/>
       <c r="C23" s="21" t="s">
         <v>44</v>
       </c>
@@ -4394,8 +4484,8 @@
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="104" t="s">
+    <row r="24" spans="2:16">
+      <c r="B24" s="110" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -4435,8 +4525,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="105"/>
+    <row r="25" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B25" s="111"/>
       <c r="C25" s="11" t="s">
         <v>44</v>
       </c>
@@ -4470,8 +4560,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B26" s="105"/>
+    <row r="26" spans="2:16">
+      <c r="B26" s="111"/>
       <c r="C26" s="8" t="s">
         <v>1</v>
       </c>
@@ -4507,8 +4597,8 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="105"/>
+    <row r="27" spans="2:16">
+      <c r="B27" s="111"/>
       <c r="C27" s="11" t="s">
         <v>44</v>
       </c>
@@ -4542,8 +4632,8 @@
       <c r="O27" s="38"/>
       <c r="P27" s="38"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="105"/>
+    <row r="28" spans="2:16">
+      <c r="B28" s="111"/>
       <c r="C28" s="11" t="s">
         <v>44</v>
       </c>
@@ -4577,8 +4667,8 @@
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
     </row>
-    <row r="29" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="106"/>
+    <row r="29" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B29" s="112"/>
       <c r="C29" s="21" t="s">
         <v>44</v>
       </c>
@@ -4612,8 +4702,8 @@
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B30" s="107" t="s">
+    <row r="30" spans="2:16">
+      <c r="B30" s="113" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="29" t="s">
@@ -4653,8 +4743,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="108"/>
+    <row r="31" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B31" s="114"/>
       <c r="C31" s="11" t="s">
         <v>44</v>
       </c>
@@ -4686,8 +4776,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="108"/>
+    <row r="32" spans="2:16">
+      <c r="B32" s="114"/>
       <c r="C32" s="9" t="s">
         <v>1</v>
       </c>
@@ -4717,8 +4807,8 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B33" s="108"/>
+    <row r="33" spans="2:16">
+      <c r="B33" s="114"/>
       <c r="C33" s="11" t="s">
         <v>44</v>
       </c>
@@ -4748,8 +4838,8 @@
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="108"/>
+    <row r="34" spans="2:16">
+      <c r="B34" s="114"/>
       <c r="C34" s="11" t="s">
         <v>44</v>
       </c>
@@ -4779,8 +4869,8 @@
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
     </row>
-    <row r="35" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
+    <row r="35" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B35" s="115"/>
       <c r="C35" s="21" t="s">
         <v>44</v>
       </c>
@@ -4810,8 +4900,8 @@
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B36" s="92" t="s">
+    <row r="36" spans="2:16">
+      <c r="B36" s="98" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -4851,8 +4941,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="93"/>
+    <row r="37" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B37" s="99"/>
       <c r="C37" s="11" t="s">
         <v>44</v>
       </c>
@@ -4882,8 +4972,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B38" s="93"/>
+    <row r="38" spans="2:16">
+      <c r="B38" s="99"/>
       <c r="C38" s="10" t="s">
         <v>1</v>
       </c>
@@ -4915,8 +5005,8 @@
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="93"/>
+    <row r="39" spans="2:16">
+      <c r="B39" s="99"/>
       <c r="C39" s="11" t="s">
         <v>44</v>
       </c>
@@ -4944,8 +5034,8 @@
       <c r="O39" s="38"/>
       <c r="P39" s="38"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="93"/>
+    <row r="40" spans="2:16">
+      <c r="B40" s="99"/>
       <c r="C40" s="11" t="s">
         <v>44</v>
       </c>
@@ -4973,8 +5063,8 @@
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
     </row>
-    <row r="41" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="94"/>
+    <row r="41" spans="2:16" ht="11.4" thickBot="1">
+      <c r="B41" s="100"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -5002,7 +5092,7 @@
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5019,7 +5109,7 @@
       <c r="O42" s="38"/>
       <c r="P42" s="38"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:16">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5061,26 +5151,26 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="34.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="110" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="46" t="s">
         <v>60</v>
       </c>
@@ -5088,7 +5178,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" s="47" t="s">
         <v>175</v>
       </c>
@@ -5098,7 +5188,7 @@
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="B6" s="47" t="s">
         <v>124</v>
       </c>
@@ -5112,7 +5202,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="B7" s="47" t="s">
         <v>62</v>
       </c>
@@ -5125,7 +5215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8">
       <c r="B8" s="47" t="s">
         <v>4</v>
       </c>
@@ -5142,7 +5232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="B9" s="47" t="s">
         <v>127</v>
       </c>
@@ -5159,7 +5249,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8">
       <c r="B10" s="47" t="s">
         <v>6</v>
       </c>
@@ -5173,7 +5263,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8">
       <c r="B11" s="47" t="s">
         <v>66</v>
       </c>
@@ -5186,7 +5276,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8">
       <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5293,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8">
       <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
@@ -5220,7 +5310,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8">
       <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
@@ -5234,7 +5324,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="B15" s="47" t="s">
         <v>69</v>
       </c>
@@ -5248,7 +5338,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="B16" s="47" t="s">
         <v>71</v>
       </c>
@@ -5262,7 +5352,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="47" t="s">
         <v>73</v>
       </c>
@@ -5276,7 +5366,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="47" t="s">
         <v>75</v>
       </c>
@@ -5288,7 +5378,7 @@
       </c>
       <c r="E18" s="50"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="47" t="s">
         <v>77</v>
       </c>
@@ -5302,7 +5392,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="47" t="s">
         <v>79</v>
       </c>
@@ -5314,7 +5404,7 @@
       </c>
       <c r="E20" s="50"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="47" t="s">
         <v>79</v>
       </c>
@@ -5326,7 +5416,7 @@
       </c>
       <c r="E21" s="50"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="47" t="s">
         <v>80</v>
       </c>
@@ -5336,7 +5426,7 @@
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" s="47" t="s">
         <v>81</v>
       </c>
@@ -5346,7 +5436,7 @@
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5">
       <c r="B24" s="47" t="s">
         <v>133</v>
       </c>
@@ -5356,7 +5446,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="B25" s="47" t="s">
         <v>124</v>
       </c>
@@ -5368,7 +5458,7 @@
       </c>
       <c r="E25" s="50"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5">
       <c r="B26" s="47" t="s">
         <v>82</v>
       </c>
@@ -5380,7 +5470,7 @@
       </c>
       <c r="E26" s="50"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5">
       <c r="B27" s="47" t="s">
         <v>84</v>
       </c>
@@ -5390,7 +5480,7 @@
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="47" t="s">
         <v>16</v>
       </c>
@@ -5402,7 +5492,7 @@
       </c>
       <c r="E28" s="50"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5">
       <c r="B29" s="47" t="s">
         <v>86</v>
       </c>
@@ -5414,7 +5504,7 @@
       </c>
       <c r="E29" s="50"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="B30" s="47" t="s">
         <v>135</v>
       </c>
@@ -5426,7 +5516,7 @@
       </c>
       <c r="E30" s="50"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5">
       <c r="B31" s="47" t="s">
         <v>136</v>
       </c>
@@ -5436,7 +5526,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="50"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5">
       <c r="B32" s="47" t="s">
         <v>89</v>
       </c>
@@ -5448,7 +5538,7 @@
       </c>
       <c r="E32" s="50"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="47" t="s">
         <v>80</v>
       </c>
@@ -5458,7 +5548,7 @@
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" s="47" t="s">
         <v>17</v>
       </c>
@@ -5470,7 +5560,7 @@
       </c>
       <c r="E34" s="50"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" s="47" t="s">
         <v>92</v>
       </c>
@@ -5482,7 +5572,7 @@
       </c>
       <c r="E35" s="50"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5">
       <c r="B36" s="47" t="s">
         <v>25</v>
       </c>
@@ -5494,7 +5584,7 @@
       </c>
       <c r="E36" s="50"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5">
       <c r="B37" s="47" t="s">
         <v>28</v>
       </c>
@@ -5506,7 +5596,7 @@
       </c>
       <c r="E37" s="50"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="B38" s="47" t="s">
         <v>29</v>
       </c>
@@ -5518,7 +5608,7 @@
       </c>
       <c r="E38" s="50"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5">
       <c r="B39" s="47" t="s">
         <v>30</v>
       </c>
@@ -5530,7 +5620,7 @@
       </c>
       <c r="E39" s="50"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5">
       <c r="B40" s="47" t="s">
         <v>31</v>
       </c>
@@ -5542,7 +5632,7 @@
       </c>
       <c r="E40" s="50"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="47" t="s">
         <v>32</v>
       </c>
@@ -5554,7 +5644,7 @@
       </c>
       <c r="E41" s="50"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="47" t="s">
         <v>99</v>
       </c>
@@ -5566,7 +5656,7 @@
       </c>
       <c r="E42" s="50"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5">
       <c r="B43" s="47" t="s">
         <v>34</v>
       </c>
@@ -5578,7 +5668,7 @@
       </c>
       <c r="E43" s="50"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5">
       <c r="B44" s="47" t="s">
         <v>102</v>
       </c>
@@ -5590,7 +5680,7 @@
       </c>
       <c r="E44" s="50"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5">
       <c r="B45" s="47" t="s">
         <v>104</v>
       </c>
@@ -5602,7 +5692,7 @@
       </c>
       <c r="E45" s="50"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5">
       <c r="B46" s="47" t="s">
         <v>140</v>
       </c>
@@ -5614,7 +5704,7 @@
       </c>
       <c r="E46" s="50"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5">
       <c r="B47" s="47" t="s">
         <v>107</v>
       </c>
@@ -5626,7 +5716,7 @@
       </c>
       <c r="E47" s="50"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5">
       <c r="B48" s="47" t="s">
         <v>99</v>
       </c>
@@ -5638,7 +5728,7 @@
       </c>
       <c r="E48" s="50"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5">
       <c r="B49" s="47" t="s">
         <v>37</v>
       </c>
@@ -5650,7 +5740,7 @@
       </c>
       <c r="E49" s="50"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5">
       <c r="B50" s="47" t="s">
         <v>111</v>
       </c>
@@ -5662,7 +5752,7 @@
       </c>
       <c r="E50" s="50"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5">
       <c r="B51" s="47" t="s">
         <v>113</v>
       </c>
@@ -5674,7 +5764,7 @@
       </c>
       <c r="E51" s="50"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5">
       <c r="B52" s="47" t="s">
         <v>25</v>
       </c>
@@ -5686,7 +5776,7 @@
       </c>
       <c r="E52" s="50"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5">
       <c r="B53" s="47" t="s">
         <v>38</v>
       </c>
@@ -5698,7 +5788,7 @@
       </c>
       <c r="E53" s="50"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5">
       <c r="B54" s="47" t="s">
         <v>37</v>
       </c>
@@ -5710,7 +5800,7 @@
       </c>
       <c r="E54" s="50"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5">
       <c r="B55" s="47" t="s">
         <v>25</v>
       </c>
@@ -5722,7 +5812,7 @@
       </c>
       <c r="E55" s="50"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5">
       <c r="B56" s="47" t="s">
         <v>119</v>
       </c>
@@ -5734,7 +5824,7 @@
       </c>
       <c r="E56" s="50"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5">
       <c r="B57" s="47" t="s">
         <v>121</v>
       </c>
@@ -5764,24 +5854,24 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5800,7 +5890,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
@@ -5819,7 +5909,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
@@ -5838,7 +5928,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -5857,7 +5947,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16">
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -5876,7 +5966,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="13.8" thickBot="1">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5893,29 +5983,29 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="13.8" thickBot="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114" t="s">
+      <c r="D8" s="119"/>
+      <c r="E8" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="116" t="s">
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="121"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="122" t="s">
         <v>187</v>
       </c>
       <c r="C9" s="51" t="s">
@@ -5961,8 +6051,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="96"/>
+    <row r="10" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B10" s="102"/>
       <c r="C10" s="11" t="s">
         <v>188</v>
       </c>
@@ -6000,8 +6090,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="96"/>
+    <row r="11" spans="2:16">
+      <c r="B11" s="102"/>
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -6029,8 +6119,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="97"/>
+    <row r="12" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B12" s="103"/>
       <c r="C12" s="12" t="s">
         <v>188</v>
       </c>
@@ -6058,8 +6148,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="98" t="s">
+    <row r="13" spans="2:16">
+      <c r="B13" s="104" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -6105,8 +6195,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99"/>
+    <row r="14" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B14" s="105"/>
       <c r="C14" s="11" t="s">
         <v>188</v>
       </c>
@@ -6144,8 +6234,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="99"/>
+    <row r="15" spans="2:16">
+      <c r="B15" s="105"/>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
@@ -6175,8 +6265,8 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="99"/>
+    <row r="16" spans="2:16">
+      <c r="B16" s="105"/>
       <c r="C16" s="11" t="s">
         <v>188</v>
       </c>
@@ -6204,8 +6294,8 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="99"/>
+    <row r="17" spans="2:16">
+      <c r="B17" s="105"/>
       <c r="C17" s="11" t="s">
         <v>188</v>
       </c>
@@ -6233,8 +6323,8 @@
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
     </row>
-    <row r="18" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="100"/>
+    <row r="18" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B18" s="106"/>
       <c r="C18" s="21" t="s">
         <v>188</v>
       </c>
@@ -6262,8 +6352,8 @@
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="101" t="s">
+    <row r="19" spans="2:16">
+      <c r="B19" s="107" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -6309,8 +6399,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="102"/>
+    <row r="20" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B20" s="108"/>
       <c r="C20" s="11" t="s">
         <v>188</v>
       </c>
@@ -6350,8 +6440,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B21" s="102"/>
+    <row r="21" spans="2:16">
+      <c r="B21" s="108"/>
       <c r="C21" s="7" t="s">
         <v>1</v>
       </c>
@@ -6387,8 +6477,8 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="102"/>
+    <row r="22" spans="2:16">
+      <c r="B22" s="108"/>
       <c r="C22" s="11" t="s">
         <v>188</v>
       </c>
@@ -6422,8 +6512,8 @@
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="102"/>
+    <row r="23" spans="2:16">
+      <c r="B23" s="108"/>
       <c r="C23" s="11" t="s">
         <v>199</v>
       </c>
@@ -6457,8 +6547,8 @@
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
     </row>
-    <row r="24" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
+    <row r="24" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B24" s="109"/>
       <c r="C24" s="21" t="s">
         <v>199</v>
       </c>
@@ -6492,8 +6582,8 @@
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="104" t="s">
+    <row r="25" spans="2:16">
+      <c r="B25" s="110" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -6539,8 +6629,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="105"/>
+    <row r="26" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B26" s="111"/>
       <c r="C26" s="11" t="s">
         <v>199</v>
       </c>
@@ -6580,8 +6670,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="105"/>
+    <row r="27" spans="2:16">
+      <c r="B27" s="111"/>
       <c r="C27" s="8" t="s">
         <v>1</v>
       </c>
@@ -6617,8 +6707,8 @@
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="105"/>
+    <row r="28" spans="2:16">
+      <c r="B28" s="111"/>
       <c r="C28" s="11" t="s">
         <v>199</v>
       </c>
@@ -6652,8 +6742,8 @@
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="105"/>
+    <row r="29" spans="2:16">
+      <c r="B29" s="111"/>
       <c r="C29" s="11" t="s">
         <v>199</v>
       </c>
@@ -6687,8 +6777,8 @@
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="106"/>
+    <row r="30" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B30" s="112"/>
       <c r="C30" s="21" t="s">
         <v>199</v>
       </c>
@@ -6722,8 +6812,8 @@
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B31" s="107" t="s">
+    <row r="31" spans="2:16">
+      <c r="B31" s="113" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="29" t="s">
@@ -6769,8 +6859,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="108"/>
+    <row r="32" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B32" s="114"/>
       <c r="C32" s="11" t="s">
         <v>199</v>
       </c>
@@ -6808,8 +6898,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B33" s="108"/>
+    <row r="33" spans="2:16">
+      <c r="B33" s="114"/>
       <c r="C33" s="9" t="s">
         <v>1</v>
       </c>
@@ -6839,8 +6929,8 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="108"/>
+    <row r="34" spans="2:16">
+      <c r="B34" s="114"/>
       <c r="C34" s="11" t="s">
         <v>199</v>
       </c>
@@ -6870,8 +6960,8 @@
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B35" s="108"/>
+    <row r="35" spans="2:16">
+      <c r="B35" s="114"/>
       <c r="C35" s="11" t="s">
         <v>199</v>
       </c>
@@ -6901,8 +6991,8 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
     </row>
-    <row r="36" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
+    <row r="36" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B36" s="115"/>
       <c r="C36" s="21" t="s">
         <v>199</v>
       </c>
@@ -6932,8 +7022,8 @@
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B37" s="92" t="s">
+    <row r="37" spans="2:16">
+      <c r="B37" s="98" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -6979,8 +7069,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="93"/>
+    <row r="38" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B38" s="99"/>
       <c r="C38" s="11" t="s">
         <v>199</v>
       </c>
@@ -7018,8 +7108,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="93"/>
+    <row r="39" spans="2:16">
+      <c r="B39" s="99"/>
       <c r="C39" s="10" t="s">
         <v>1</v>
       </c>
@@ -7051,8 +7141,8 @@
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="93"/>
+    <row r="40" spans="2:16">
+      <c r="B40" s="99"/>
       <c r="C40" s="11" t="s">
         <v>199</v>
       </c>
@@ -7084,8 +7174,8 @@
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B41" s="93"/>
+    <row r="41" spans="2:16">
+      <c r="B41" s="99"/>
       <c r="C41" s="11" t="s">
         <v>199</v>
       </c>
@@ -7117,8 +7207,8 @@
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
     </row>
-    <row r="42" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="94"/>
+    <row r="42" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B42" s="100"/>
       <c r="C42" s="21" t="s">
         <v>199</v>
       </c>

--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A02_控除マスタCSV出力_補足資料.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A02_控除マスタCSV出力_補足資料.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_19001～19100\E_本稼動_19033【収益認識】控除マスタCSV出力権限変更\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19101～19200\E_本稼動_19101【収益認識】控除マスタCSV出力の権限変更（改修）\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1331,7 +1331,6 @@
       <rPr>
         <strike/>
         <sz val="10"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
@@ -1341,13 +1340,31 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+指定された企業指定の控除マスタに加えて、企業傘下の控除用チェーン及び顧客で指定された控除マスタも出力対象とします。特権拠点の場合は上記条件を満たす全データを出力可。通常拠点の場合は自拠点分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
-指定された企業指定の控除マスタに加えて、企業傘下の控除用チェーン及び顧客で指定された控除マスタも出力対象とします。特権拠点の場合は上記条件を満たす全データを出力可。通常拠点の場合は自拠点分のみ出力可とします。</t>
+      <t>または企業傘下顧客の担当拠点（売上計上拠点）がログイン者の担当拠点に合致する場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のみ出力可とします。</t>
     </r>
     <rPh sb="0" eb="2">
       <t>カンゼン</t>
@@ -1362,7 +1379,6 @@
       <rPr>
         <strike/>
         <sz val="10"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
@@ -1372,13 +1388,31 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+指定された控除用チェーン指定の控除マスタに加えて、控除用チェーン傘下の顧客で指定された控除マスタも出力対象とします。特権拠点の場合は上記条件を満たす全データを出力可。通常拠点の場合は自拠点分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
-指定された控除用チェーン指定の控除マスタに加えて、控除用チェーン傘下の顧客で指定された控除マスタも出力対象とします。特権拠点の場合は上記条件を満たす全データを出力可。通常拠点の場合は自拠点分のみ出力可とします。</t>
+      <t>またはチェーン傘下顧客の担当拠点（売上計上拠点）がログイン者の担当拠点に合致する場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のみ出力可とします。</t>
     </r>
     <rPh sb="0" eb="2">
       <t>カンゼン</t>
@@ -1637,7 +1671,6 @@
     <font>
       <strike/>
       <sz val="10"/>
-      <color rgb="FFFF00FF"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2771,7 +2804,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3259,9 +3292,7 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -3326,7 +3357,7 @@
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
     </row>
-    <row r="4" spans="1:8" ht="144">
+    <row r="4" spans="1:8" ht="201.6">
       <c r="A4" s="90"/>
       <c r="B4" s="57" t="s">
         <v>4</v>
@@ -3344,7 +3375,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:8" ht="158.4">
+    <row r="5" spans="1:8" ht="201.6">
       <c r="A5" s="90"/>
       <c r="B5" s="57" t="s">
         <v>243</v>
